--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB4-3-b.PRN.xlsx.3_short_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB4-3-b.PRN.xlsx.3_short_HighestDemandInReachableArea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t xml:space="preserve">File: </t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Route</t>
+  </si>
+  <si>
+    <t>Inital Solution 0 changes  totQ=38.00 totD=26.57 $26.57</t>
+  </si>
+  <si>
+    <t>Inital Solution 0 changes  totQ=38.00 totD=19.11 $19.11</t>
   </si>
 </sst>
 </file>
@@ -140,64 +146,28 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" t="n">
-        <v>79.98389434814453</v>
+        <v>7.726996421813965</v>
       </c>
       <c r="C7" t="n">
-        <v>113.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>94.0</v>
+        <v>34.0</v>
       </c>
       <c r="G7" t="n">
-        <v>86.0</v>
+        <v>7.0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -205,103 +175,122 @@
         <v>1.0</v>
       </c>
       <c r="B8" t="n">
-        <v>78.59944152832031</v>
+        <v>18.83835792541504</v>
       </c>
       <c r="C8" t="n">
-        <v>51.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>82.0</v>
       </c>
       <c r="G8" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
-        <v>55.98789596557617</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11"/>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
